--- a/StoryLine.xlsx
+++ b/StoryLine.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\kent\Second\LoveStory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Work\MyProject\LoveStory-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6494D5-22C1-41DD-B86C-392C7F8E7323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F7F09-5485-45A8-BC31-B7655E41D171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -96,6 +97,30 @@
   </si>
   <si>
     <t>我正式加入了JCI Lead Tropicana，然后我和CD 说了不要让你知道</t>
+  </si>
+  <si>
+    <t>2020年6月20日</t>
+  </si>
+  <si>
+    <t>第一次见面
+吵架后，要马上解决
+看到你那害羞的脸，笑死我了</t>
+  </si>
+  <si>
+    <t>2020年6月27日</t>
+  </si>
+  <si>
+    <t>2020年6月28日</t>
+  </si>
+  <si>
+    <t>我们的第一个旅行 Desaru Coast
+很开心也牙很痛
+拍了好多的照片</t>
+  </si>
+  <si>
+    <t>补回表白，可是有人没在听
+第一次见到你的朋友
+谢谢你朋友对你的照顾</t>
   </si>
 </sst>
 </file>
@@ -417,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D16"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +554,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
